--- a/transcripcion/consolidado.xlsx
+++ b/transcripcion/consolidado.xlsx
@@ -1347,7 +1347,7 @@
   <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
